--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_software\pythonProject\peel_interface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346CCA10-C174-4BF4-ABDA-2FC5C7DBAA1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA63558A-4AE0-4041-BBA0-C726E99D260F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7212" yWindow="756" windowWidth="14868" windowHeight="11640" activeTab="1" xr2:uid="{77F88275-5317-44AD-AC71-CFED7444DC0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{77F88275-5317-44AD-AC71-CFED7444DC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="UmsMemberLogin" sheetId="1" r:id="rId1"/>
     <sheet name="UpdataMemberInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="CommentController" sheetId="4" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +180,155 @@
   </si>
   <si>
     <t>{"code":200,"message":"","data":{"umeMemberBaseInfoDTO":{"memberId":3371219599,"phone":"18800000020"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "sex": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "avatar": "https://gimg2.baidu.com/image_search/src=http%3A%2F%2Finews.gtimg.com%2Fnewsapp_match%2F0%2F12028934557%2F0.jpg&amp;refer=http%3A%2F%2Finews.gtimg.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1623035603&amp;t=8d8e6ba486af722a8d2325fb856e914c"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "backgroundImage": "https://gimg2.baidu.com/image_search/src=http%3A%2F%2Finews.gtimg.com%2Fnewsapp_match%2F0%2F12028934557%2F0.jpg&amp;refer=http%3A%2F%2Finews.gtimg.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=jpeg?sec=1623035603&amp;t=8d8e6ba486af722a8d2325fb856e914c"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "nickname": "南风知我意"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"signature": "南风知我意"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"编辑成功","data":"","showTime":2000,"pageNumber":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/member/info/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"","data":"","showTime":2000,"pageNumber":null}</t>
+  </si>
+  <si>
+    <t>test_comment_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sencond_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_insert_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_insert_sencond_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_delete_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/comment/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/comment/8457327436?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/comment/8457326101?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/comment/18375?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":200,"message":""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"status":500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除别人评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取空评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二级评论列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,14 +446,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,7 +776,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -786,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A50CD4A-FE46-41A9-B226-37CDBFB1D6B0}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -795,7 +949,8 @@
     <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" customWidth="1"/>
     <col min="4" max="4" width="72.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
+    <col min="5" max="5" width="99" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -822,7 +977,7 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -831,41 +986,71 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="96.6">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96.6">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="41.4">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -873,18 +1058,36 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -898,4 +1101,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D49649-364B-4A27-9528-AD1E4C978218}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{16F99A80-A533-43F5-857B-A7E294542A2D}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{9EA51270-F6C5-4465-A0D7-AABCD76DF4AE}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{5BD0AB12-14C6-4283-9EF8-52A1A5619076}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{B504297C-77EF-4F23-AEFB-8F4E7977D2F5}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{D4EE6A89-63F3-45EC-97F4-FBFEA9CEB4B4}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{A62F32D8-BD57-4AD1-A575-73495D5F1D7B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1C573-899A-4F24-994A-58257C2E519B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="66.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{85FE3CB5-4E93-479A-9CB9-C4C285D717B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_software\pythonProject\peel_interface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA63558A-4AE0-4041-BBA0-C726E99D260F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F14E7-F828-4801-893B-7927D8C5AF12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{77F88275-5317-44AD-AC71-CFED7444DC0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{77F88275-5317-44AD-AC71-CFED7444DC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="UmsMemberLogin" sheetId="1" r:id="rId1"/>
     <sheet name="UpdataMemberInfo" sheetId="2" r:id="rId2"/>
     <sheet name="CommentController" sheetId="4" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="3" r:id="rId4"/>
+    <sheet name="PmsPostController" sheetId="5" r:id="rId4"/>
+    <sheet name="PmsPostLikeController" sheetId="6" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +331,178 @@
   </si>
   <si>
     <t>获取二级评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/post?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录状态下获取帖子列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态下获取帖子列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/post</t>
+  </si>
+  <si>
+    <t>{"content":"作品详述","images":"http://dongxiangkj.oss-cn-beijing.aliyuncs.com/guopiriji/Android/20210510/1620643807461_788*1050.jpeg","mainImage":"http://dongxiangkj.oss-cn-beijing.aliyuncs.com/guopiriji/Android/20210510/1620643807461_788*1050.jpeg","mainTitle":"测试贴","topicId":38567494}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/post/personal?memberId=3371219599&amp;pageNum=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>"memberId":3371219599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人帖子列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取他人帖子列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"memberId":3371225863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/post/personal?memberId=3371225863&amp;pageNum=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/post/personal/like?memberId=3371219599&amp;pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人点赞列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"memberId":3371224353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/post/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"删除成功","data":"","showTime":2000,"pageNumber":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取帖子详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post_details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/like?postId=8457325484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"","data":"","showTime":2000,"pageNumber":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞未点赞的帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":500,"message":"该帖子你已经赞过了～","data":null,"showTime":2000,"pageNumber":null}</t>
+  </si>
+  <si>
+    <t>点赞已点赞的欸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_comment_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/like/commentId?commentId=19073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消评论点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post_like_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post_like_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_comment_like_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_home_post_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_personal_home_post_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_personal_post_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_other_post_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post_like_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images":"http://dongxiangkj.oss-cn-beijing.aliyuncs.com/guopiriji/Android/20210510/1620643807461_788*1050.jpeg","mainTitle":"测试贴","content":"作品详述","topicMainTitle":"三坑研究所美女子集合啦","topicId":38567494,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"","data":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_post_remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"mainTitle":"测试贴","content":"作品详述","topicMainTitle":"三坑研究所美女子集合啦","topicId":38567494</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +569,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,10 +590,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE5E0C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE5E0C6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE5E0C6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE5E0C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE5E0C6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE5E0C6"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -427,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +663,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D49649-364B-4A27-9528-AD1E4C978218}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1245,6 +1466,332 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB701731-BFA5-42AD-A214-7461F3861D5D}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="111" thickBot="1">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42" thickBot="1">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B337166F-7AD5-42B5-8BE5-2553A1EB84B9}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{83BF8A8D-633D-4BB0-97DA-5D5E33CF86E0}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{80C266C6-DC42-4D19-A286-57D9A042C766}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{FDBCD8DE-40D5-405B-A8F2-9921E9A83E5F}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{95600D47-2283-4337-B54E-04497717CBE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F2BF40-7EB7-4CF7-86C6-53EAEC53D0BA}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="37.799999999999997" customHeight="1">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{DDE7FF73-A5FF-40A9-B590-E0205ADDA4F5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E63D02B6-5F44-4CA6-BB8C-F087DE7E8745}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{379168EF-802E-444E-84CD-240DEC1696A9}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{CAD47B72-B040-4BC2-BF9E-871A283F856E}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{5AEEFFB4-5632-4CAE-B5B2-FF0F3C2ED8A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1C573-899A-4F24-994A-58257C2E519B}">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_software\pythonProject\peel_interface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F14E7-F828-4801-893B-7927D8C5AF12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE89D11-F703-4046-9B75-3C43F2A33F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{77F88275-5317-44AD-AC71-CFED7444DC0B}"/>
+    <workbookView xWindow="408" yWindow="552" windowWidth="14868" windowHeight="11640" firstSheet="4" activeTab="5" xr2:uid="{77F88275-5317-44AD-AC71-CFED7444DC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="UmsMemberLogin" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="CommentController" sheetId="4" r:id="rId3"/>
     <sheet name="PmsPostController" sheetId="5" r:id="rId4"/>
     <sheet name="PmsPostLikeController" sheetId="6" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="3" r:id="rId6"/>
+    <sheet name="UmsAttentionController" sheetId="7" r:id="rId6"/>
+    <sheet name="withdraw" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +504,140 @@
   </si>
   <si>
     <t>"mainTitle":"测试贴","content":"作品详述","topicMainTitle":"三坑研究所美女子集合啦","topicId":38567494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/other/3371219599/0?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/other/3371219599/1?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/0?pageNum=1&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/1?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"","data":"0","showTime":2000,"pageNumber":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注一个非自己粉丝的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"","data":"1","showTime":2000,"pageNumber":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注自己粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention?memberId=3371219598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_attention_list_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"message":"","data":[],"showTime":2000,"pageNumber":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"memberId":3371220102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_fans_list_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的粉丝列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别人空粉丝列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别人粉丝列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别人空关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别人关注列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/other/3371219102/1?pageNum=1&amp;pageSize=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_remove_attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_other_fans_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_other_attention_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_other_mutual_attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_personal_attention_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_personal_fans_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"memberId":3371219598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/3371220102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention?memberId=3371220102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.114.189.49:8000/attention/3371219598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_remove_attention1</t>
+  </si>
+  <si>
+    <t>取消关注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +813,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB701731-BFA5-42AD-A214-7461F3861D5D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1792,6 +1933,232 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0EDA3D-A58D-4152-9CF8-734E518582E4}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{782A5D37-1105-4781-A41B-B015B16C0818}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{26195B0F-97DC-46D9-8054-3B9EFF47B895}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{883846C1-1232-4D31-9B88-080E061631DB}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{2C3FED4F-2F9B-4168-B85A-EB74DE53839D}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{2A4FB6B5-0015-4201-9958-6C74AC40E36D}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{5C879CB1-A49A-4D19-9C91-C7035F7E02C8}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{A43B0B11-C095-4523-8425-54E0258C6F5F}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{406A59B5-E936-4D31-B6A7-E5B7C2FA8866}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{701320CC-5591-4F8D-B954-7CA960DD5A94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1C573-899A-4F24-994A-58257C2E519B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
